--- a/deutsch-log.xlsx
+++ b/deutsch-log.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arana/Dropbox/personal-projects/education/languages/deutsch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE38F70-578B-094B-A506-35ABC89286C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D3C87-0C61-BD47-A518-FA5FDC2EA746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{E6731FF7-D8D2-624E-BC85-07B8AE9D39B2}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{E6731FF7-D8D2-624E-BC85-07B8AE9D39B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Research on how to tell time</t>
+  </si>
+  <si>
+    <t>Exercises on time</t>
   </si>
 </sst>
 </file>
@@ -401,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E98F729-3796-9A4D-81AC-06CB2F6CA363}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -437,6 +440,33 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
